--- a/critical_classification/critical_dataset/metadata.xlsx
+++ b/critical_classification/critical_dataset/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoavo2003/PycharmProjects/DAAD-RISE-Germany/critical_classification/critical_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38CFF42-9734-1044-8802-F192F9F7A391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C596AF31-58FF-E84D-813E-68B17D149A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6293,8 +6293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1601" workbookViewId="0">
-      <selection activeCell="B1625" sqref="B1625"/>
+    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
+      <selection activeCell="C893" sqref="C893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18621,7 +18621,7 @@
         <v>964</v>
       </c>
       <c r="D888" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
@@ -18676,7 +18676,7 @@
         <v>964</v>
       </c>
       <c r="D893" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.2">
@@ -18698,7 +18698,7 @@
         <v>964</v>
       </c>
       <c r="D895" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.2">

--- a/critical_classification/critical_dataset/metadata.xlsx
+++ b/critical_classification/critical_dataset/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoavo2003/PycharmProjects/DAAD-RISE-Germany/critical_classification/critical_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6C478-61EE-9D4A-9867-D9BCD6B356AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF33574F-F671-3243-90CC-290448E0A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6509" uniqueCount="1964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6478" uniqueCount="1964">
   <si>
     <t>path</t>
   </si>
@@ -6293,8 +6293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A967" workbookViewId="0">
-      <selection activeCell="A971" sqref="A971"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7043,9 +7043,6 @@
       <c r="B54" t="s">
         <v>5</v>
       </c>
-      <c r="D54" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -7054,9 +7051,6 @@
       <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="D55" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -7076,9 +7070,6 @@
       <c r="B57" t="s">
         <v>5</v>
       </c>
-      <c r="D57" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -7087,9 +7078,6 @@
       <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="D58" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -7098,9 +7086,6 @@
       <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -7109,9 +7094,6 @@
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="D60" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -7120,9 +7102,6 @@
       <c r="B61" t="s">
         <v>5</v>
       </c>
-      <c r="D61" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -7131,9 +7110,6 @@
       <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="D62" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -7142,9 +7118,6 @@
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -7153,184 +7126,133 @@
       <c r="B64" t="s">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>117</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>119</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
-      <c r="D67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>120</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>121</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="D69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>122</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
-      <c r="D70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>123</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
-      <c r="D71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>124</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
-      <c r="D72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>125</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
-      <c r="D73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>126</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
-      <c r="D74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>127</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
-      <c r="D75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>128</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
-      <c r="D76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>129</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
-      <c r="D77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>130</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
-      <c r="D78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>131</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
-      <c r="D79" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>132</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7340,9 +7262,6 @@
       <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="D81" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -7351,9 +7270,6 @@
       <c r="B82" t="s">
         <v>5</v>
       </c>
-      <c r="D82" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -7362,9 +7278,6 @@
       <c r="B83" t="s">
         <v>5</v>
       </c>
-      <c r="D83" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -7373,9 +7286,6 @@
       <c r="B84" t="s">
         <v>5</v>
       </c>
-      <c r="D84" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -7383,9 +7293,6 @@
       </c>
       <c r="B85" t="s">
         <v>5</v>
-      </c>
-      <c r="D85" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">

--- a/critical_classification/critical_dataset/metadata.xlsx
+++ b/critical_classification/critical_dataset/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoavo2003/PycharmProjects/DAAD-RISE-Germany/critical_classification/critical_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF33574F-F671-3243-90CC-290448E0A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56840930-C2F0-A64B-9BA6-E3AF055A0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6293,8 +6293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7320,7 +7320,7 @@
         <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -7348,7 +7348,7 @@
         <v>147</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -7460,7 +7460,7 @@
         <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">

--- a/critical_classification/critical_dataset/metadata.xlsx
+++ b/critical_classification/critical_dataset/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoavo2003/PycharmProjects/DAAD-RISE-Germany/critical_classification/critical_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56840930-C2F0-A64B-9BA6-E3AF055A0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A9755-1E04-D643-8608-7DE65AFBA185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6293,8 +6293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7011,7 +7011,7 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7022,7 +7022,7 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7033,7 +7033,7 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7060,7 +7060,7 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -18528,7 +18528,7 @@
         <v>1963</v>
       </c>
       <c r="D888" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
@@ -18583,7 +18583,7 @@
         <v>1963</v>
       </c>
       <c r="D893" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.2">
@@ -18605,7 +18605,7 @@
         <v>1963</v>
       </c>
       <c r="D895" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.2">
